--- a/NAN/Tools.xlsx
+++ b/NAN/Tools.xlsx
@@ -21,12 +21,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">R=</t>
   </si>
   <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pi=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正负角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旋转角指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">起点X Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圆周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切分步数(精度)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旋转角长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个切分点长度</t>
   </si>
 </sst>
 </file>
@@ -68,7 +98,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +115,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,20 +170,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,7 +219,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -168,7 +236,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -193,7 +261,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -239,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,15 +319,172 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">B2*B1*2</f>
+        <v>3.14</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">COUNT(D:D)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">IF(B3="-",-A17*(B4/360),A17*(B4/360))</f>
+        <v>0.436111111111111</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">ABS(A19)/B17</f>
+        <v>0.0311507936507937</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
